--- a/var_info/indv_panel_var_info/SOEP_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/SOEP_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF8586-3851-5F4A-B1E8-2D61B8F494A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA7796-26B3-7A4D-BDD5-A234CF7FC9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="105">
   <si>
     <t>SOEP</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -830,11 +833,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1190,470 +1191,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>11</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1665,27 +1703,30 @@
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1697,27 +1738,30 @@
       <c r="H15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1729,27 +1773,30 @@
       <c r="H16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1761,81 +1808,90 @@
       <c r="H17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="s">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>19</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1845,15 +1901,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1897,10 +1953,13 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1913,11 +1972,11 @@
       <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1930,11 +1989,11 @@
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2006,7 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1958,15 +2017,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2010,10 +2069,13 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2026,11 +2088,11 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2043,11 +2105,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2060,11 +2122,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2077,11 +2139,11 @@
       <c r="E5" t="s">
         <v>99</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2156,7 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2105,15 +2167,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2157,10 +2219,13 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2173,11 +2238,11 @@
       <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2190,11 +2255,11 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2207,11 +2272,11 @@
       <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2224,11 +2289,11 @@
       <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2241,11 +2306,11 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2323,7 @@
       <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2269,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2280,7 +2345,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2324,6 +2389,9 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
     </row>
